--- a/Output/Norway.xlsx
+++ b/Output/Norway.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Desktop\JN\University_studies\Rashetka\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Documents\Документы\Git\Raschetnoe_zadaniye\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401BF78F-D3C7-46F5-935E-06593D0BD5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17F54FA-F22E-4C63-9015-29AB0941C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard Deviations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>lin</t>
   </si>
@@ -101,7 +101,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -109,7 +109,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -133,16 +133,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +495,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1.043916444088773E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -551,7 +551,7 @@
         <v>2.6169952024269998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,7 +568,7 @@
         <v>3.126724881920929</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>5.4375801113968816</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -602,7 +602,7 @@
         <v>5.7235940756522838</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -619,21 +619,21 @@
         <v>3.8335677480666348</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>5.8045047338863322E-2</v>
+        <v>1.211969861078665E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>5.530169276439291E-2</v>
+        <v>1.1353009508894131E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>4.2788654576724129E-2</v>
+        <v>8.7190793583353365E-3</v>
       </c>
       <c r="E8" s="4">
-        <v>2.830653713365102E-2</v>
+        <v>5.7541720751290932E-3</v>
       </c>
     </row>
   </sheetData>
@@ -646,17 +646,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -687,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -704,24 +702,24 @@
         <v>0.12531776155093241</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>-3.2168704398277771E-15</v>
+        <v>0.25041702802162752</v>
       </c>
       <c r="C4" s="4">
-        <v>-2.690760494262837E-15</v>
+        <v>-0.49474626793448662</v>
       </c>
       <c r="D4" s="4">
-        <v>-9.4791405456104993E-13</v>
+        <v>-0.40114320177148738</v>
       </c>
       <c r="E4" s="4">
-        <v>4.2394189206574329E-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-0.47490402690407663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -738,7 +736,7 @@
         <v>0.32440511894893281</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -755,7 +753,7 @@
         <v>0.38952025409163421</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -772,24 +770,24 @@
         <v>0.34825191904468822</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4">
-        <v>0.4086429070903484</v>
+        <v>0.44160913334040652</v>
       </c>
       <c r="C8" s="4">
-        <v>0.32354368890120022</v>
+        <v>0.30393125285619232</v>
       </c>
       <c r="D8" s="4">
-        <v>-2.7696870226389791E-2</v>
+        <v>-7.6685371202904834E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>0.16067194039344879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1163876825445591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -816,15 +814,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -838,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -855,7 +853,7 @@
         <v>0.42495019246720711</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -872,7 +870,7 @@
         <v>0.28132506735432022</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -889,7 +887,7 @@
         <v>0.16222173686069061</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -906,7 +904,7 @@
         <v>0.34793868496797242</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -923,7 +921,7 @@
         <v>0.13897001591384431</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -940,21 +938,21 @@
         <v>0.19704946542010029</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4">
-        <v>0.64217428778370522</v>
+        <v>0.68323782225800522</v>
       </c>
       <c r="C8" s="4">
-        <v>0.54400911533099217</v>
+        <v>0.5781300539228339</v>
       </c>
       <c r="D8" s="4">
-        <v>0.40022781129598972</v>
+        <v>0.42537371869940771</v>
       </c>
       <c r="E8" s="4">
-        <v>0.18131940463586299</v>
+        <v>0.18653025097105799</v>
       </c>
     </row>
   </sheetData>
@@ -964,23 +962,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -994,37 +987,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
-        <v>-8.9027318012394624E-18</v>
+        <v>18.494389071239759</v>
       </c>
       <c r="C2" s="4">
-        <v>6.2842812714631504E-18</v>
+        <v>7.5277502246336629</v>
       </c>
       <c r="D2" s="4">
-        <v>-5.3678235860414404E-16</v>
+        <v>0.87381783692208403</v>
       </c>
       <c r="E2" s="4">
-        <v>1.5448858125680241E-17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4">
-        <v>18.494389071239759</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7.5277502246336629</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.87381783692208403</v>
-      </c>
-      <c r="E3" s="4">
         <v>38.657213697986897</v>
       </c>
     </row>
